--- a/Main Project/3 - Modeling/y_test_negocio.xlsx
+++ b/Main Project/3 - Modeling/y_test_negocio.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>negocio</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,13 +381,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>1070</v>
+        <v>1573</v>
       </c>
       <c r="B2">
         <v>-1</v>
@@ -387,7 +395,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -395,7 +403,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>881</v>
+        <v>1292</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -403,7 +411,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -411,7 +419,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>3195</v>
+        <v>4970</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -419,7 +427,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>3436</v>
+        <v>5502</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -427,7 +435,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>1812</v>
+        <v>2568</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -435,7 +443,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>1569</v>
+        <v>2247</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -443,7 +451,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>1029</v>
+        <v>1517</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -451,7 +459,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>1362</v>
+        <v>1963</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -459,7 +467,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>2428</v>
+        <v>3450</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -467,7 +475,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>1110</v>
+        <v>1621</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -475,7 +483,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>3646</v>
+        <v>5883</v>
       </c>
       <c r="B14">
         <v>-1</v>
@@ -483,7 +491,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>1113</v>
+        <v>1625</v>
       </c>
       <c r="B15">
         <v>-1</v>
@@ -491,7 +499,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>3151</v>
+        <v>4833</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -499,7 +507,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>3621</v>
+        <v>5840</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -507,7 +515,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>2507</v>
+        <v>3568</v>
       </c>
       <c r="B18">
         <v>-1</v>
@@ -515,7 +523,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>1777</v>
+        <v>2517</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -523,7 +531,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>2430</v>
+        <v>3452</v>
       </c>
       <c r="B20">
         <v>-1</v>
@@ -531,7 +539,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>1034</v>
+        <v>1524</v>
       </c>
       <c r="B21">
         <v>-1</v>
@@ -539,7 +547,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>3340</v>
+        <v>5279</v>
       </c>
       <c r="B22">
         <v>-1</v>
@@ -547,7 +555,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>2836</v>
+        <v>4102</v>
       </c>
       <c r="B23">
         <v>-1</v>
@@ -555,7 +563,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -563,7 +571,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>291</v>
+        <v>460</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -571,7 +579,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>1476</v>
+        <v>2110</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -579,7 +587,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>1741</v>
+        <v>2475</v>
       </c>
       <c r="B27">
         <v>-1</v>
@@ -587,7 +595,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>3200</v>
+        <v>4980</v>
       </c>
       <c r="B28">
         <v>-1</v>
@@ -595,7 +603,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>240</v>
+        <v>377</v>
       </c>
       <c r="B29">
         <v>-1</v>
@@ -603,7 +611,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>889</v>
+        <v>1303</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -611,7 +619,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>478</v>
+        <v>744</v>
       </c>
       <c r="B31">
         <v>-1</v>
@@ -619,7 +627,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>463</v>
+        <v>723</v>
       </c>
       <c r="B32">
         <v>-1</v>
@@ -627,7 +635,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>432</v>
+        <v>683</v>
       </c>
       <c r="B33">
         <v>-1</v>
@@ -635,7 +643,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>2634</v>
+        <v>3770</v>
       </c>
       <c r="B34">
         <v>-1</v>
@@ -643,7 +651,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B35">
         <v>-1</v>
@@ -651,7 +659,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>2800</v>
+        <v>4053</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -659,7 +667,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>2573</v>
+        <v>3671</v>
       </c>
       <c r="B37">
         <v>-1</v>
@@ -667,7 +675,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>366</v>
+        <v>572</v>
       </c>
       <c r="B38">
         <v>-1</v>
@@ -675,7 +683,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>564</v>
+        <v>867</v>
       </c>
       <c r="B39">
         <v>-1</v>
@@ -683,7 +691,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>3401</v>
+        <v>5440</v>
       </c>
       <c r="B40">
         <v>-1</v>
@@ -691,7 +699,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>3594</v>
+        <v>5795</v>
       </c>
       <c r="B41">
         <v>-1</v>
@@ -699,7 +707,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>744</v>
+        <v>1118</v>
       </c>
       <c r="B42">
         <v>-1</v>
@@ -707,7 +715,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>3016</v>
+        <v>4523</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -715,7 +723,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>2728</v>
+        <v>3925</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -723,7 +731,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>2170</v>
+        <v>3068</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -731,7 +739,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>952</v>
+        <v>1391</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -739,7 +747,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>3562</v>
+        <v>5732</v>
       </c>
       <c r="B47">
         <v>-1</v>
@@ -747,7 +755,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="B48">
         <v>-1</v>
@@ -755,7 +763,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>816</v>
+        <v>1205</v>
       </c>
       <c r="B49">
         <v>-1</v>
@@ -763,7 +771,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>3138</v>
+        <v>4811</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -771,7 +779,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>1220</v>
+        <v>1767</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -779,7 +787,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>2905</v>
+        <v>4238</v>
       </c>
       <c r="B52">
         <v>-1</v>
@@ -787,7 +795,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>1672</v>
+        <v>2385</v>
       </c>
       <c r="B53">
         <v>-1</v>
@@ -795,7 +803,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>3259</v>
+        <v>5093</v>
       </c>
       <c r="B54">
         <v>-1</v>
@@ -803,7 +811,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="B55">
         <v>-1</v>
@@ -811,7 +819,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>3696</v>
+        <v>5983</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -819,7 +827,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="B57">
         <v>-1</v>
@@ -827,7 +835,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>1565</v>
+        <v>2240</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -835,7 +843,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>1593</v>
+        <v>2286</v>
       </c>
       <c r="B59">
         <v>-1</v>
@@ -843,7 +851,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>2178</v>
+        <v>3078</v>
       </c>
       <c r="B60">
         <v>-1</v>
@@ -851,7 +859,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>2181</v>
+        <v>3085</v>
       </c>
       <c r="B61">
         <v>-1</v>
@@ -859,7 +867,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>2339</v>
+        <v>3332</v>
       </c>
       <c r="B62">
         <v>-1</v>
@@ -867,7 +875,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>864</v>
+        <v>1270</v>
       </c>
       <c r="B63">
         <v>-1</v>
@@ -875,7 +883,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>2440</v>
+        <v>3467</v>
       </c>
       <c r="B64">
         <v>-1</v>
@@ -883,7 +891,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>3648</v>
+        <v>5889</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -891,7 +899,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>999</v>
+        <v>1469</v>
       </c>
       <c r="B66">
         <v>-1</v>
@@ -899,7 +907,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>2250</v>
+        <v>3191</v>
       </c>
       <c r="B67">
         <v>-1</v>
@@ -907,7 +915,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>2726</v>
+        <v>3922</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -915,7 +923,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>657</v>
+        <v>995</v>
       </c>
       <c r="B69">
         <v>-1</v>
@@ -923,7 +931,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>351</v>
+        <v>550</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -931,7 +939,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>3601</v>
+        <v>5809</v>
       </c>
       <c r="B71">
         <v>-1</v>
@@ -939,7 +947,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>1027</v>
+        <v>1515</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -947,7 +955,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>1298</v>
+        <v>1873</v>
       </c>
       <c r="B73">
         <v>-1</v>
@@ -955,7 +963,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>443</v>
+        <v>696</v>
       </c>
       <c r="B74">
         <v>-1</v>
@@ -963,7 +971,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>1228</v>
+        <v>1776</v>
       </c>
       <c r="B75">
         <v>-1</v>
@@ -971,7 +979,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>2126</v>
+        <v>3007</v>
       </c>
       <c r="B76">
         <v>-1</v>
@@ -979,7 +987,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>2312</v>
+        <v>3296</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -987,7 +995,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>1873</v>
+        <v>2651</v>
       </c>
       <c r="B78">
         <v>-1</v>
@@ -995,7 +1003,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>1414</v>
+        <v>2032</v>
       </c>
       <c r="B79">
         <v>-1</v>
@@ -1003,7 +1011,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>3081</v>
+        <v>4669</v>
       </c>
       <c r="B80">
         <v>-1</v>
@@ -1011,7 +1019,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>3004</v>
+        <v>4478</v>
       </c>
       <c r="B81">
         <v>-1</v>
@@ -1019,7 +1027,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>1064</v>
+        <v>1566</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1027,7 +1035,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>1651</v>
+        <v>2354</v>
       </c>
       <c r="B83">
         <v>-1</v>
@@ -1035,7 +1043,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>2266</v>
+        <v>3218</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1043,7 +1051,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>676</v>
+        <v>1022</v>
       </c>
       <c r="B85">
         <v>-1</v>
@@ -1051,7 +1059,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>1419</v>
+        <v>2040</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1059,7 +1067,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>2377</v>
+        <v>3381</v>
       </c>
       <c r="B87">
         <v>-1</v>
@@ -1067,7 +1075,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>2594</v>
+        <v>3704</v>
       </c>
       <c r="B88">
         <v>-1</v>
@@ -1075,7 +1083,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>2754</v>
+        <v>3969</v>
       </c>
       <c r="B89">
         <v>-1</v>
@@ -1083,7 +1091,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>3400</v>
+        <v>5438</v>
       </c>
       <c r="B90">
         <v>-1</v>
@@ -1091,7 +1099,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>2063</v>
+        <v>2922</v>
       </c>
       <c r="B91">
         <v>-1</v>
@@ -1099,7 +1107,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>3079</v>
+        <v>4655</v>
       </c>
       <c r="B92">
         <v>-1</v>
@@ -1107,7 +1115,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>1644</v>
+        <v>2343</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1115,7 +1123,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="B94">
         <v>-1</v>
@@ -1123,7 +1131,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>490</v>
+        <v>763</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1131,7 +1139,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>1871</v>
+        <v>2649</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1139,7 +1147,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>3093</v>
+        <v>4699</v>
       </c>
       <c r="B97">
         <v>-1</v>
@@ -1147,7 +1155,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>3224</v>
+        <v>5049</v>
       </c>
       <c r="B98">
         <v>-1</v>
@@ -1155,7 +1163,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>3371</v>
+        <v>5358</v>
       </c>
       <c r="B99">
         <v>-1</v>
@@ -1163,7 +1171,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B100">
         <v>-1</v>
@@ -1171,7 +1179,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>3309</v>
+        <v>5193</v>
       </c>
       <c r="B101">
         <v>-1</v>
@@ -1179,7 +1187,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>3470</v>
+        <v>5571</v>
       </c>
       <c r="B102">
         <v>-1</v>
@@ -1187,7 +1195,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>1366</v>
+        <v>1968</v>
       </c>
       <c r="B103">
         <v>-1</v>
@@ -1195,7 +1203,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>1558</v>
+        <v>2233</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1203,7 +1211,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>3409</v>
+        <v>5457</v>
       </c>
       <c r="B105">
         <v>-1</v>
@@ -1211,7 +1219,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>3615</v>
+        <v>5833</v>
       </c>
       <c r="B106">
         <v>-1</v>
@@ -1219,7 +1227,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="B107">
         <v>-1</v>
@@ -1227,7 +1235,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>3052</v>
+        <v>4594</v>
       </c>
       <c r="B108">
         <v>-1</v>
@@ -1235,7 +1243,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>3192</v>
+        <v>4967</v>
       </c>
       <c r="B109">
         <v>-1</v>
@@ -1243,7 +1251,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>1135</v>
+        <v>1654</v>
       </c>
       <c r="B110">
         <v>-1</v>
@@ -1251,7 +1259,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>3755</v>
+        <v>6074</v>
       </c>
       <c r="B111">
         <v>-1</v>
@@ -1259,7 +1267,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>1378</v>
+        <v>1981</v>
       </c>
       <c r="B112">
         <v>-1</v>
@@ -1267,7 +1275,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>817</v>
+        <v>1206</v>
       </c>
       <c r="B113">
         <v>-1</v>
@@ -1275,7 +1283,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>3163</v>
+        <v>4873</v>
       </c>
       <c r="B114">
         <v>-1</v>
@@ -1283,7 +1291,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B115">
         <v>-1</v>
@@ -1291,7 +1299,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>642</v>
+        <v>975</v>
       </c>
       <c r="B116">
         <v>-1</v>
@@ -1299,7 +1307,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>1052</v>
+        <v>1551</v>
       </c>
       <c r="B117">
         <v>-1</v>
@@ -1307,7 +1315,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>573</v>
+        <v>876</v>
       </c>
       <c r="B118">
         <v>-1</v>
@@ -1315,7 +1323,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>1545</v>
+        <v>2216</v>
       </c>
       <c r="B119">
         <v>-1</v>
@@ -1323,7 +1331,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>3237</v>
+        <v>5068</v>
       </c>
       <c r="B120">
         <v>-1</v>
@@ -1331,7 +1339,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="B121">
         <v>-1</v>
@@ -1339,7 +1347,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>2732</v>
+        <v>3934</v>
       </c>
       <c r="B122">
         <v>-1</v>
@@ -1347,7 +1355,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>2512</v>
+        <v>3574</v>
       </c>
       <c r="B123">
         <v>-1</v>
@@ -1355,7 +1363,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>461</v>
+        <v>720</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1363,7 +1371,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>3367</v>
+        <v>5349</v>
       </c>
       <c r="B125">
         <v>-1</v>
@@ -1371,7 +1379,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>2990</v>
+        <v>4424</v>
       </c>
       <c r="B126">
         <v>-1</v>
@@ -1379,7 +1387,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>2042</v>
+        <v>2898</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1387,7 +1395,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>1398</v>
+        <v>2009</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1395,7 +1403,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>2212</v>
+        <v>3139</v>
       </c>
       <c r="B129">
         <v>-1</v>
@@ -1403,7 +1411,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>321</v>
+        <v>499</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1411,7 +1419,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B131">
         <v>-1</v>
@@ -1419,7 +1427,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>3550</v>
+        <v>5715</v>
       </c>
       <c r="B132">
         <v>-1</v>
@@ -1427,7 +1435,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="B133">
         <v>-1</v>
@@ -1435,7 +1443,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>3790</v>
+        <v>6144</v>
       </c>
       <c r="B134">
         <v>-1</v>
@@ -1443,7 +1451,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>3269</v>
+        <v>5104</v>
       </c>
       <c r="B135">
         <v>-1</v>
@@ -1451,7 +1459,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>1175</v>
+        <v>1706</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1459,7 +1467,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>1078</v>
+        <v>1583</v>
       </c>
       <c r="B137">
         <v>-1</v>
@@ -1467,7 +1475,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>3614</v>
+        <v>5831</v>
       </c>
       <c r="B138">
         <v>-1</v>
@@ -1475,7 +1483,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1483,7 +1491,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>1373</v>
+        <v>1975</v>
       </c>
       <c r="B140">
         <v>-1</v>
@@ -1491,7 +1499,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>3428</v>
+        <v>5485</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1499,7 +1507,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>2742</v>
+        <v>3948</v>
       </c>
       <c r="B142">
         <v>-1</v>
@@ -1507,7 +1515,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>1800</v>
+        <v>2555</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1515,7 +1523,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="B144">
         <v>-1</v>
@@ -1523,7 +1531,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>2659</v>
+        <v>3800</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -1531,7 +1539,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>869</v>
+        <v>1276</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1539,7 +1547,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>2527</v>
+        <v>3595</v>
       </c>
       <c r="B147">
         <v>-1</v>
@@ -1547,7 +1555,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>2457</v>
+        <v>3492</v>
       </c>
       <c r="B148">
         <v>-1</v>
@@ -1555,7 +1563,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>1847</v>
+        <v>2613</v>
       </c>
       <c r="B149">
         <v>-1</v>
@@ -1563,7 +1571,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>3373</v>
+        <v>5367</v>
       </c>
       <c r="B150">
         <v>-1</v>
@@ -1571,7 +1579,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>2679</v>
+        <v>3834</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1579,7 +1587,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>776</v>
+        <v>1157</v>
       </c>
       <c r="B152">
         <v>-1</v>
@@ -1587,7 +1595,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>1336</v>
+        <v>1930</v>
       </c>
       <c r="B153">
         <v>-1</v>
@@ -1595,7 +1603,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>3039</v>
+        <v>4569</v>
       </c>
       <c r="B154">
         <v>-1</v>
@@ -1603,7 +1611,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>2867</v>
+        <v>4156</v>
       </c>
       <c r="B155">
         <v>-1</v>
@@ -1611,7 +1619,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>3043</v>
+        <v>4580</v>
       </c>
       <c r="B156">
         <v>-1</v>
@@ -1619,7 +1627,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>263</v>
+        <v>413</v>
       </c>
       <c r="B157">
         <v>-1</v>
@@ -1627,7 +1635,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>2299</v>
+        <v>3273</v>
       </c>
       <c r="B158">
         <v>-1</v>
@@ -1635,7 +1643,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="B159">
         <v>-1</v>
@@ -1643,7 +1651,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>457</v>
+        <v>716</v>
       </c>
       <c r="B160">
         <v>-1</v>
@@ -1651,7 +1659,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>1839</v>
+        <v>2601</v>
       </c>
       <c r="B161">
         <v>-1</v>
@@ -1659,7 +1667,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>2334</v>
+        <v>3325</v>
       </c>
       <c r="B162">
         <v>-1</v>
@@ -1667,7 +1675,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>1427</v>
+        <v>2048</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -1675,7 +1683,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>3657</v>
+        <v>5913</v>
       </c>
       <c r="B164">
         <v>-1</v>
@@ -1683,7 +1691,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B165">
         <v>-1</v>
@@ -1691,7 +1699,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>2643</v>
+        <v>3784</v>
       </c>
       <c r="B166">
         <v>-1</v>
@@ -1699,7 +1707,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>1546</v>
+        <v>2217</v>
       </c>
       <c r="B167">
         <v>-1</v>
@@ -1707,7 +1715,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>2519</v>
+        <v>3586</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1715,7 +1723,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>3305</v>
+        <v>5186</v>
       </c>
       <c r="B169">
         <v>-1</v>
@@ -1723,7 +1731,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -1731,7 +1739,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>1106</v>
+        <v>1615</v>
       </c>
       <c r="B171">
         <v>-1</v>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>402</v>
+        <v>636</v>
       </c>
       <c r="B172">
         <v>-1</v>
@@ -1747,7 +1755,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>3245</v>
+        <v>5077</v>
       </c>
       <c r="B173">
         <v>-1</v>
@@ -1755,7 +1763,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>1670</v>
+        <v>2382</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1763,7 +1771,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>3169</v>
+        <v>4893</v>
       </c>
       <c r="B175">
         <v>-1</v>
@@ -1771,7 +1779,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>298</v>
+        <v>468</v>
       </c>
       <c r="B176">
         <v>-1</v>
@@ -1779,7 +1787,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>3793</v>
+        <v>6148</v>
       </c>
       <c r="B177">
         <v>-1</v>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>1539</v>
+        <v>2204</v>
       </c>
       <c r="B178">
         <v>-1</v>
@@ -1795,7 +1803,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>2464</v>
+        <v>3506</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -1803,7 +1811,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>1598</v>
+        <v>2292</v>
       </c>
       <c r="B180">
         <v>-1</v>
@@ -1811,7 +1819,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>318</v>
+        <v>493</v>
       </c>
       <c r="B181">
         <v>-1</v>
@@ -1819,7 +1827,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>3149</v>
+        <v>4830</v>
       </c>
       <c r="B182">
         <v>-1</v>
@@ -1827,7 +1835,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>3084</v>
+        <v>4676</v>
       </c>
       <c r="B183">
         <v>-1</v>
@@ -1835,7 +1843,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B184">
         <v>-1</v>
@@ -1843,7 +1851,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>1767</v>
+        <v>2505</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -1851,7 +1859,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -1859,7 +1867,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>1717</v>
+        <v>2442</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1867,7 +1875,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>705</v>
+        <v>1060</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1875,7 +1883,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>1514</v>
+        <v>2166</v>
       </c>
       <c r="B189">
         <v>-1</v>
@@ -1883,7 +1891,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>429</v>
+        <v>679</v>
       </c>
       <c r="B190">
         <v>-1</v>
@@ -1891,7 +1899,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>2840</v>
+        <v>4109</v>
       </c>
       <c r="B191">
         <v>-1</v>
@@ -1899,7 +1907,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>2417</v>
+        <v>3439</v>
       </c>
       <c r="B192">
         <v>-1</v>
@@ -1907,7 +1915,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>1061</v>
+        <v>1561</v>
       </c>
       <c r="B193">
         <v>-1</v>
@@ -1915,7 +1923,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>1764</v>
+        <v>2502</v>
       </c>
       <c r="B194">
         <v>-1</v>
@@ -1923,7 +1931,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>1779</v>
+        <v>2519</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -1931,7 +1939,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>2295</v>
+        <v>3266</v>
       </c>
       <c r="B196">
         <v>-1</v>
@@ -1939,7 +1947,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>1921</v>
+        <v>2725</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -1947,7 +1955,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>1896</v>
+        <v>2686</v>
       </c>
       <c r="B198">
         <v>-1</v>
@@ -1955,7 +1963,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>410</v>
+        <v>648</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1963,7 +1971,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>1862</v>
+        <v>2635</v>
       </c>
       <c r="B200">
         <v>-1</v>
@@ -1971,7 +1979,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>2591</v>
+        <v>3701</v>
       </c>
       <c r="B201">
         <v>-1</v>
@@ -1979,7 +1987,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>752</v>
+        <v>1130</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -1987,7 +1995,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>761</v>
+        <v>1141</v>
       </c>
       <c r="B203">
         <v>-1</v>
@@ -1995,7 +2003,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>3778</v>
+        <v>6116</v>
       </c>
       <c r="B204">
         <v>-1</v>
@@ -2003,7 +2011,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>325</v>
+        <v>510</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -2011,7 +2019,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>538</v>
+        <v>834</v>
       </c>
       <c r="B206">
         <v>-1</v>
@@ -2019,7 +2027,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>2439</v>
+        <v>3464</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2027,7 +2035,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>2760</v>
+        <v>3981</v>
       </c>
       <c r="B208">
         <v>-1</v>
@@ -2035,7 +2043,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>3359</v>
+        <v>5331</v>
       </c>
       <c r="B209">
         <v>-1</v>
@@ -2043,7 +2051,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>3518</v>
+        <v>5658</v>
       </c>
       <c r="B210">
         <v>-1</v>
@@ -2051,7 +2059,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>1163</v>
+        <v>1691</v>
       </c>
       <c r="B211">
         <v>-1</v>
@@ -2059,7 +2067,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>2354</v>
+        <v>3353</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -2067,7 +2075,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>393</v>
+        <v>618</v>
       </c>
       <c r="B213">
         <v>-1</v>
@@ -2075,7 +2083,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>2246</v>
+        <v>3187</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -2083,7 +2091,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>1988</v>
+        <v>2814</v>
       </c>
       <c r="B215">
         <v>-1</v>
@@ -2091,7 +2099,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>2351</v>
+        <v>3346</v>
       </c>
       <c r="B216">
         <v>-1</v>
@@ -2099,7 +2107,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>3608</v>
+        <v>5823</v>
       </c>
       <c r="B217">
         <v>-1</v>
@@ -2107,7 +2115,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>3536</v>
+        <v>5691</v>
       </c>
       <c r="B218">
         <v>-1</v>
@@ -2115,7 +2123,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>2841</v>
+        <v>4110</v>
       </c>
       <c r="B219">
         <v>-1</v>
@@ -2123,7 +2131,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>802</v>
+        <v>1187</v>
       </c>
       <c r="B220">
         <v>-1</v>
@@ -2131,7 +2139,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>3677</v>
+        <v>5943</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -2139,7 +2147,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>3198</v>
+        <v>4978</v>
       </c>
       <c r="B222">
         <v>-1</v>
@@ -2147,7 +2155,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>486</v>
+        <v>755</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2155,7 +2163,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="B224">
         <v>-1</v>
@@ -2163,7 +2171,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>2928</v>
+        <v>4295</v>
       </c>
       <c r="B225">
         <v>-1</v>
@@ -2171,7 +2179,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>2341</v>
+        <v>3334</v>
       </c>
       <c r="B226">
         <v>-1</v>
@@ -2179,7 +2187,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="B227">
         <v>-1</v>
@@ -2187,7 +2195,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>3325</v>
+        <v>5226</v>
       </c>
       <c r="B228">
         <v>-1</v>
@@ -2195,7 +2203,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B229">
         <v>-1</v>
@@ -2203,7 +2211,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>2903</v>
+        <v>4233</v>
       </c>
       <c r="B230">
         <v>-1</v>
@@ -2211,7 +2219,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>3351</v>
+        <v>5308</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -2219,7 +2227,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>3670</v>
+        <v>5936</v>
       </c>
       <c r="B232">
         <v>-1</v>
@@ -2227,7 +2235,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>1880</v>
+        <v>2659</v>
       </c>
       <c r="B233">
         <v>-1</v>
@@ -2235,7 +2243,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>712</v>
+        <v>1069</v>
       </c>
       <c r="B234">
         <v>-1</v>
@@ -2243,7 +2251,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>2462</v>
+        <v>3503</v>
       </c>
       <c r="B235">
         <v>-1</v>
@@ -2251,7 +2259,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>2244</v>
+        <v>3185</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -2259,7 +2267,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>1452</v>
+        <v>2080</v>
       </c>
       <c r="B237">
         <v>-1</v>
@@ -2267,7 +2275,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>2647</v>
+        <v>3788</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -2275,7 +2283,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>2651</v>
+        <v>3792</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2283,7 +2291,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>2676</v>
+        <v>3829</v>
       </c>
       <c r="B240">
         <v>-1</v>
@@ -2291,7 +2299,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>2461</v>
+        <v>3502</v>
       </c>
       <c r="B241">
         <v>-1</v>
@@ -2299,7 +2307,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>1805</v>
+        <v>2561</v>
       </c>
       <c r="B242">
         <v>-1</v>
@@ -2307,7 +2315,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>554</v>
+        <v>855</v>
       </c>
       <c r="B243">
         <v>-1</v>
@@ -2315,7 +2323,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>1552</v>
+        <v>2225</v>
       </c>
       <c r="B244">
         <v>-1</v>
@@ -2323,7 +2331,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>1554</v>
+        <v>2229</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -2331,7 +2339,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>2256</v>
+        <v>3205</v>
       </c>
       <c r="B246">
         <v>-1</v>
@@ -2339,7 +2347,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>721</v>
+        <v>1081</v>
       </c>
       <c r="B247">
         <v>-1</v>
@@ -2347,7 +2355,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>3495</v>
+        <v>5622</v>
       </c>
       <c r="B248">
         <v>-1</v>
@@ -2355,7 +2363,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>818</v>
+        <v>1207</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2363,7 +2371,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>2350</v>
+        <v>3345</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -2371,7 +2379,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>2031</v>
+        <v>2882</v>
       </c>
       <c r="B251">
         <v>-1</v>
@@ -2379,7 +2387,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>838</v>
+        <v>1238</v>
       </c>
       <c r="B252">
         <v>-1</v>
@@ -2387,7 +2395,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>2437</v>
+        <v>3462</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2395,7 +2403,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B254">
         <v>-1</v>
@@ -2403,7 +2411,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>3301</v>
+        <v>5177</v>
       </c>
       <c r="B255">
         <v>-1</v>
@@ -2411,7 +2419,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B256">
         <v>-1</v>
@@ -2419,7 +2427,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>1506</v>
+        <v>2155</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2427,7 +2435,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>682</v>
+        <v>1030</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -2435,7 +2443,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>3330</v>
+        <v>5237</v>
       </c>
       <c r="B259">
         <v>-1</v>
@@ -2443,7 +2451,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>2788</v>
+        <v>4029</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -2451,7 +2459,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>1517</v>
+        <v>2171</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2459,7 +2467,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>1918</v>
+        <v>2720</v>
       </c>
       <c r="B262">
         <v>-1</v>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>551</v>
+        <v>852</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -2475,7 +2483,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>1402</v>
+        <v>2015</v>
       </c>
       <c r="B264">
         <v>-1</v>
@@ -2483,7 +2491,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>1795</v>
+        <v>2546</v>
       </c>
       <c r="B265">
         <v>-1</v>
@@ -2491,7 +2499,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>1185</v>
+        <v>1716</v>
       </c>
       <c r="B266">
         <v>-1</v>
@@ -2499,7 +2507,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>879</v>
+        <v>1290</v>
       </c>
       <c r="B267">
         <v>-1</v>
@@ -2507,7 +2515,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>1080</v>
+        <v>1586</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2515,7 +2523,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>1684</v>
+        <v>2401</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -2523,7 +2531,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>2229</v>
+        <v>3165</v>
       </c>
       <c r="B270">
         <v>-1</v>
@@ -2531,7 +2539,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B271">
         <v>-1</v>
@@ -2539,7 +2547,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>2971</v>
+        <v>4378</v>
       </c>
       <c r="B272">
         <v>-1</v>
@@ -2547,7 +2555,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>2505</v>
+        <v>3565</v>
       </c>
       <c r="B273">
         <v>-1</v>
@@ -2555,7 +2563,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>1407</v>
+        <v>2024</v>
       </c>
       <c r="B274">
         <v>-1</v>
@@ -2563,7 +2571,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>1442</v>
+        <v>2066</v>
       </c>
       <c r="B275">
         <v>-1</v>
@@ -2571,7 +2579,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="B276">
         <v>-1</v>
@@ -2579,7 +2587,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -2587,7 +2595,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>1725</v>
+        <v>2451</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2595,7 +2603,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>2846</v>
+        <v>4119</v>
       </c>
       <c r="B279">
         <v>-1</v>
@@ -2603,7 +2611,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>2155</v>
+        <v>3051</v>
       </c>
       <c r="B280">
         <v>-1</v>
@@ -2611,7 +2619,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>915</v>
+        <v>1342</v>
       </c>
       <c r="B281">
         <v>-1</v>
@@ -2619,7 +2627,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>438</v>
+        <v>689</v>
       </c>
       <c r="B282">
         <v>-1</v>
@@ -2627,7 +2635,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>2515</v>
+        <v>3582</v>
       </c>
       <c r="B283">
         <v>-1</v>
@@ -2635,7 +2643,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>2028</v>
+        <v>2875</v>
       </c>
       <c r="B284">
         <v>-1</v>
@@ -2643,7 +2651,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="B285">
         <v>-1</v>
@@ -2651,7 +2659,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -2659,7 +2667,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>990</v>
+        <v>1450</v>
       </c>
       <c r="B287">
         <v>-1</v>
@@ -2667,7 +2675,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>927</v>
+        <v>1355</v>
       </c>
       <c r="B288">
         <v>-1</v>
@@ -2675,7 +2683,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>2499</v>
+        <v>3558</v>
       </c>
       <c r="B289">
         <v>-1</v>
@@ -2683,7 +2691,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>810</v>
+        <v>1198</v>
       </c>
       <c r="B290">
         <v>-1</v>
@@ -2691,7 +2699,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>3431</v>
+        <v>5495</v>
       </c>
       <c r="B291">
         <v>-1</v>
@@ -2699,7 +2707,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>1187</v>
+        <v>1719</v>
       </c>
       <c r="B292">
         <v>-1</v>
@@ -2707,7 +2715,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>2697</v>
+        <v>3873</v>
       </c>
       <c r="B293">
         <v>-1</v>
@@ -2715,7 +2723,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>1580</v>
+        <v>2268</v>
       </c>
       <c r="B294">
         <v>-1</v>
@@ -2723,7 +2731,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>2172</v>
+        <v>3071</v>
       </c>
       <c r="B295">
         <v>-1</v>
@@ -2731,7 +2739,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>1041</v>
+        <v>1536</v>
       </c>
       <c r="B296">
         <v>-1</v>
@@ -2739,7 +2747,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>1042</v>
+        <v>1537</v>
       </c>
       <c r="B297">
         <v>-1</v>
@@ -2747,7 +2755,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>965</v>
+        <v>1413</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2755,7 +2763,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>693</v>
+        <v>1042</v>
       </c>
       <c r="B299">
         <v>-1</v>
@@ -2763,7 +2771,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B300">
         <v>-1</v>
@@ -2771,7 +2779,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>3176</v>
+        <v>4920</v>
       </c>
       <c r="B301">
         <v>-1</v>
@@ -2779,7 +2787,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>2775</v>
+        <v>4009</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2787,7 +2795,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>1117</v>
+        <v>1630</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2795,7 +2803,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>1572</v>
+        <v>2251</v>
       </c>
       <c r="B304">
         <v>-1</v>
@@ -2803,7 +2811,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="B305">
         <v>-1</v>
@@ -2811,7 +2819,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>1749</v>
+        <v>2484</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2819,7 +2827,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>937</v>
+        <v>1371</v>
       </c>
       <c r="B307">
         <v>-1</v>
@@ -2827,7 +2835,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>2749</v>
+        <v>3961</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -2835,7 +2843,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B309">
         <v>-1</v>
@@ -2843,7 +2851,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>3319</v>
+        <v>5211</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2851,7 +2859,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="B311">
         <v>-1</v>
@@ -2859,7 +2867,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>3028</v>
+        <v>4550</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -2867,7 +2875,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>3480</v>
+        <v>5597</v>
       </c>
       <c r="B313">
         <v>-1</v>
@@ -2875,7 +2883,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>1954</v>
+        <v>2771</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2883,7 +2891,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>3575</v>
+        <v>5762</v>
       </c>
       <c r="B315">
         <v>-1</v>
@@ -2891,7 +2899,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -2899,7 +2907,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>2127</v>
+        <v>3008</v>
       </c>
       <c r="B317">
         <v>-1</v>
@@ -2907,7 +2915,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>2148</v>
+        <v>3044</v>
       </c>
       <c r="B318">
         <v>-1</v>
@@ -2915,7 +2923,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>309</v>
+        <v>483</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -2923,7 +2931,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>266</v>
+        <v>418</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -2931,7 +2939,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>1483</v>
+        <v>2117</v>
       </c>
       <c r="B321">
         <v>-1</v>
@@ -2939,7 +2947,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>3285</v>
+        <v>5127</v>
       </c>
       <c r="B322">
         <v>-1</v>
@@ -2947,7 +2955,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>1957</v>
+        <v>2778</v>
       </c>
       <c r="B323">
         <v>-1</v>
@@ -2955,7 +2963,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>2641</v>
+        <v>3780</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -2963,7 +2971,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>805</v>
+        <v>1191</v>
       </c>
       <c r="B325">
         <v>-1</v>
@@ -2971,7 +2979,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>3072</v>
+        <v>4634</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -2979,7 +2987,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B327">
         <v>-1</v>
@@ -2987,7 +2995,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>3284</v>
+        <v>5126</v>
       </c>
       <c r="B328">
         <v>-1</v>
@@ -2995,7 +3003,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>1104</v>
+        <v>1613</v>
       </c>
       <c r="B329">
         <v>-1</v>
@@ -3003,7 +3011,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>3733</v>
+        <v>6036</v>
       </c>
       <c r="B330">
         <v>-1</v>
@@ -3011,7 +3019,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>358</v>
+        <v>558</v>
       </c>
       <c r="B331">
         <v>-1</v>
@@ -3019,7 +3027,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -3027,7 +3035,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>1164</v>
+        <v>1693</v>
       </c>
       <c r="B333">
         <v>-1</v>
@@ -3035,7 +3043,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>3015</v>
+        <v>4522</v>
       </c>
       <c r="B334">
         <v>-1</v>
@@ -3043,7 +3051,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>2878</v>
+        <v>4182</v>
       </c>
       <c r="B335">
         <v>-1</v>
@@ -3051,7 +3059,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>829</v>
+        <v>1224</v>
       </c>
       <c r="B336">
         <v>-1</v>
@@ -3059,7 +3067,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>798</v>
+        <v>1183</v>
       </c>
       <c r="B337">
         <v>-1</v>
@@ -3067,7 +3075,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -3075,7 +3083,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>1494</v>
+        <v>2138</v>
       </c>
       <c r="B339">
         <v>-1</v>
@@ -3083,7 +3091,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>2580</v>
+        <v>3686</v>
       </c>
       <c r="B340">
         <v>-1</v>
@@ -3091,7 +3099,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>2577</v>
+        <v>3678</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3099,7 +3107,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>2829</v>
+        <v>4091</v>
       </c>
       <c r="B342">
         <v>-1</v>
@@ -3107,7 +3115,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>3743</v>
+        <v>6052</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -3115,7 +3123,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>279</v>
+        <v>436</v>
       </c>
       <c r="B344">
         <v>-1</v>
@@ -3123,7 +3131,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>2241</v>
+        <v>3181</v>
       </c>
       <c r="B345">
         <v>-1</v>
@@ -3131,7 +3139,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>3150</v>
+        <v>4832</v>
       </c>
       <c r="B346">
         <v>-1</v>
@@ -3139,7 +3147,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>2691</v>
+        <v>3861</v>
       </c>
       <c r="B347">
         <v>-1</v>
@@ -3147,7 +3155,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="B348">
         <v>-1</v>
@@ -3155,7 +3163,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>2003</v>
+        <v>2837</v>
       </c>
       <c r="B349">
         <v>-1</v>
@@ -3163,7 +3171,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>1844</v>
+        <v>2609</v>
       </c>
       <c r="B350">
         <v>-1</v>
@@ -3171,7 +3179,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>2720</v>
+        <v>3912</v>
       </c>
       <c r="B351">
         <v>-1</v>
@@ -3179,7 +3187,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>415</v>
+        <v>660</v>
       </c>
       <c r="B352">
         <v>-1</v>
@@ -3187,7 +3195,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>450</v>
+        <v>707</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3195,7 +3203,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>1807</v>
+        <v>2563</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3203,7 +3211,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>2954</v>
+        <v>4342</v>
       </c>
       <c r="B355">
         <v>-1</v>
@@ -3211,7 +3219,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>3521</v>
+        <v>5666</v>
       </c>
       <c r="B356">
         <v>-1</v>
@@ -3219,7 +3227,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>969</v>
+        <v>1418</v>
       </c>
       <c r="B357">
         <v>-1</v>
@@ -3227,7 +3235,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>3158</v>
+        <v>4857</v>
       </c>
       <c r="B358">
         <v>-1</v>
@@ -3235,7 +3243,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>3335</v>
+        <v>5256</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3243,7 +3251,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>2730</v>
+        <v>3930</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3251,7 +3259,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>2864</v>
+        <v>4152</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3259,7 +3267,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>3665</v>
+        <v>5927</v>
       </c>
       <c r="B362">
         <v>-1</v>
@@ -3267,7 +3275,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>2002</v>
+        <v>2836</v>
       </c>
       <c r="B363">
         <v>-1</v>
@@ -3275,7 +3283,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>2953</v>
+        <v>4341</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3283,7 +3291,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>534</v>
+        <v>830</v>
       </c>
       <c r="B365">
         <v>-1</v>
@@ -3291,7 +3299,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>414</v>
+        <v>655</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3299,7 +3307,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B367">
         <v>-1</v>
@@ -3307,7 +3315,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B368">
         <v>-1</v>
@@ -3315,7 +3323,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>2117</v>
+        <v>2997</v>
       </c>
       <c r="B369">
         <v>-1</v>
@@ -3323,7 +3331,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>2751</v>
+        <v>3963</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -3331,7 +3339,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="B371">
         <v>-1</v>
@@ -3339,7 +3347,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>2415</v>
+        <v>3434</v>
       </c>
       <c r="B372">
         <v>-1</v>
@@ -3347,7 +3355,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>3046</v>
+        <v>4585</v>
       </c>
       <c r="B373">
         <v>-1</v>
@@ -3355,7 +3363,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>2852</v>
+        <v>4129</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3363,7 +3371,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>2216</v>
+        <v>3143</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3371,7 +3379,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>2045</v>
+        <v>2901</v>
       </c>
       <c r="B376">
         <v>-1</v>
@@ -3379,7 +3387,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>2538</v>
+        <v>3613</v>
       </c>
       <c r="B377">
         <v>-1</v>
@@ -3387,7 +3395,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>3122</v>
+        <v>4775</v>
       </c>
       <c r="B378">
         <v>-1</v>
@@ -3395,7 +3403,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>2609</v>
+        <v>3725</v>
       </c>
       <c r="B379">
         <v>-1</v>
@@ -3403,7 +3411,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>2189</v>
+        <v>3096</v>
       </c>
       <c r="B380">
         <v>-1</v>
@@ -3411,7 +3419,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>907</v>
+        <v>1329</v>
       </c>
       <c r="B381">
         <v>-1</v>
@@ -3419,7 +3427,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>495</v>
+        <v>769</v>
       </c>
       <c r="B382">
         <v>-1</v>
@@ -3427,7 +3435,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>527</v>
+        <v>821</v>
       </c>
       <c r="B383">
         <v>-1</v>
@@ -3435,7 +3443,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>2274</v>
+        <v>3233</v>
       </c>
       <c r="B384">
         <v>-1</v>
@@ -3443,7 +3451,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="B385">
         <v>-1</v>
@@ -3451,7 +3459,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>314</v>
+        <v>489</v>
       </c>
       <c r="B386">
         <v>-1</v>
@@ -3459,7 +3467,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>3654</v>
+        <v>5902</v>
       </c>
       <c r="B387">
         <v>-1</v>
@@ -3467,7 +3475,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>305</v>
+        <v>478</v>
       </c>
       <c r="B388">
         <v>-1</v>
@@ -3475,7 +3483,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>1564</v>
+        <v>2239</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -3483,7 +3491,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>3447</v>
+        <v>5523</v>
       </c>
       <c r="B390">
         <v>-1</v>
@@ -3491,7 +3499,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>2470</v>
+        <v>3519</v>
       </c>
       <c r="B391">
         <v>-1</v>
@@ -3499,7 +3507,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>1747</v>
+        <v>2482</v>
       </c>
       <c r="B392">
         <v>-1</v>
@@ -3507,7 +3515,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>3566</v>
+        <v>5748</v>
       </c>
       <c r="B393">
         <v>-1</v>
@@ -3515,7 +3523,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>2446</v>
+        <v>3473</v>
       </c>
       <c r="B394">
         <v>-1</v>
@@ -3523,7 +3531,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B395">
         <v>-1</v>
@@ -3531,7 +3539,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>439</v>
+        <v>690</v>
       </c>
       <c r="B396">
         <v>-1</v>
@@ -3539,7 +3547,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>2245</v>
+        <v>3186</v>
       </c>
       <c r="B397">
         <v>-1</v>
@@ -3547,7 +3555,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>976</v>
+        <v>1429</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3555,7 +3563,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>1987</v>
+        <v>2813</v>
       </c>
       <c r="B399">
         <v>-1</v>
@@ -3563,7 +3571,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>655</v>
+        <v>993</v>
       </c>
       <c r="B400">
         <v>-1</v>
@@ -3571,7 +3579,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>2668</v>
+        <v>3816</v>
       </c>
       <c r="B401">
         <v>-1</v>
@@ -3579,7 +3587,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>1210</v>
+        <v>1753</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -3587,7 +3595,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>387</v>
+        <v>612</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -3595,7 +3603,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B404">
         <v>-1</v>
@@ -3603,7 +3611,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>1915</v>
+        <v>2715</v>
       </c>
       <c r="B405">
         <v>-1</v>
@@ -3611,7 +3619,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="B406">
         <v>-1</v>
@@ -3619,7 +3627,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>1450</v>
+        <v>2078</v>
       </c>
       <c r="B407">
         <v>-1</v>
@@ -3627,7 +3635,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>2018</v>
+        <v>2858</v>
       </c>
       <c r="B408">
         <v>-1</v>
@@ -3635,7 +3643,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>3663</v>
+        <v>5925</v>
       </c>
       <c r="B409">
         <v>-1</v>
@@ -3643,7 +3651,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>3528</v>
+        <v>5679</v>
       </c>
       <c r="B410">
         <v>-1</v>
@@ -3651,7 +3659,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B411">
         <v>-1</v>
@@ -3659,7 +3667,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>465</v>
+        <v>727</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3667,7 +3675,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>368</v>
+        <v>575</v>
       </c>
       <c r="B413">
         <v>-1</v>
@@ -3675,7 +3683,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>1436</v>
+        <v>2060</v>
       </c>
       <c r="B414">
         <v>-1</v>
@@ -3683,7 +3691,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>2090</v>
+        <v>2961</v>
       </c>
       <c r="B415">
         <v>-1</v>
@@ -3691,7 +3699,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>1754</v>
+        <v>2491</v>
       </c>
       <c r="B416">
         <v>-1</v>
@@ -3699,7 +3707,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>2307</v>
+        <v>3285</v>
       </c>
       <c r="B417">
         <v>-1</v>
@@ -3707,7 +3715,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>511</v>
+        <v>796</v>
       </c>
       <c r="B418">
         <v>-1</v>
@@ -3715,7 +3723,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="B419">
         <v>-1</v>
@@ -3723,7 +3731,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>1538</v>
+        <v>2201</v>
       </c>
       <c r="B420">
         <v>-1</v>
@@ -3731,7 +3739,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>2682</v>
+        <v>3841</v>
       </c>
       <c r="B421">
         <v>-1</v>
@@ -3739,7 +3747,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>1536</v>
+        <v>2198</v>
       </c>
       <c r="B422">
         <v>-1</v>
@@ -3747,7 +3755,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3755,7 +3763,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>1653</v>
+        <v>2356</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3763,7 +3771,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>2805</v>
+        <v>4060</v>
       </c>
       <c r="B425">
         <v>-1</v>
@@ -3771,7 +3779,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>1468</v>
+        <v>2100</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3779,7 +3787,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>3045</v>
+        <v>4583</v>
       </c>
       <c r="B427">
         <v>-1</v>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
-        <v>1965</v>
+        <v>2789</v>
       </c>
       <c r="B428">
         <v>-1</v>
@@ -3795,7 +3803,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1">
-        <v>1488</v>
+        <v>2132</v>
       </c>
       <c r="B429">
         <v>-1</v>
@@ -3803,7 +3811,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="1">
-        <v>3145</v>
+        <v>4823</v>
       </c>
       <c r="B430">
         <v>-1</v>
@@ -3811,7 +3819,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="1">
-        <v>289</v>
+        <v>455</v>
       </c>
       <c r="B431">
         <v>-1</v>
@@ -3819,7 +3827,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="B432">
         <v>-1</v>
@@ -3827,7 +3835,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="1">
-        <v>567</v>
+        <v>870</v>
       </c>
       <c r="B433">
         <v>-1</v>
@@ -3835,7 +3843,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1">
-        <v>2704</v>
+        <v>3887</v>
       </c>
       <c r="B434">
         <v>-1</v>
@@ -3843,7 +3851,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1">
-        <v>1231</v>
+        <v>1782</v>
       </c>
       <c r="B435">
         <v>-1</v>
@@ -3851,7 +3859,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1">
-        <v>2602</v>
+        <v>3712</v>
       </c>
       <c r="B436">
         <v>-1</v>
@@ -3859,7 +3867,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1">
-        <v>2628</v>
+        <v>3762</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3867,7 +3875,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1">
-        <v>1174</v>
+        <v>1705</v>
       </c>
       <c r="B438">
         <v>-1</v>
@@ -3875,7 +3883,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1">
-        <v>1173</v>
+        <v>1704</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3883,7 +3891,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1">
-        <v>2817</v>
+        <v>4074</v>
       </c>
       <c r="B440">
         <v>-1</v>
@@ -3891,7 +3899,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="1">
-        <v>2091</v>
+        <v>2962</v>
       </c>
       <c r="B441">
         <v>-1</v>
@@ -3899,7 +3907,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1">
-        <v>2167</v>
+        <v>3064</v>
       </c>
       <c r="B442">
         <v>-1</v>
@@ -3907,7 +3915,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1">
-        <v>3091</v>
+        <v>4695</v>
       </c>
       <c r="B443">
         <v>-1</v>
@@ -3915,7 +3923,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1">
-        <v>1510</v>
+        <v>2160</v>
       </c>
       <c r="B444">
         <v>-1</v>
@@ -3923,7 +3931,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1">
-        <v>839</v>
+        <v>1239</v>
       </c>
       <c r="B445">
         <v>-1</v>
@@ -3931,7 +3939,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1">
-        <v>1878</v>
+        <v>2657</v>
       </c>
       <c r="B446">
         <v>-1</v>
@@ -3939,7 +3947,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1">
-        <v>2345</v>
+        <v>3338</v>
       </c>
       <c r="B447">
         <v>-1</v>
@@ -3947,7 +3955,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="1">
-        <v>857</v>
+        <v>1261</v>
       </c>
       <c r="B448">
         <v>-1</v>
@@ -3955,7 +3963,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="B449">
         <v>-1</v>
@@ -3963,7 +3971,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1">
-        <v>2025</v>
+        <v>2871</v>
       </c>
       <c r="B450">
         <v>-1</v>
@@ -3971,7 +3979,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1">
-        <v>670</v>
+        <v>1015</v>
       </c>
       <c r="B451">
         <v>-1</v>
@@ -3979,7 +3987,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1">
-        <v>3156</v>
+        <v>4850</v>
       </c>
       <c r="B452">
         <v>-1</v>
@@ -3987,7 +3995,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1">
-        <v>3435</v>
+        <v>5499</v>
       </c>
       <c r="B453">
         <v>-1</v>
@@ -3995,7 +4003,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B454">
         <v>-1</v>
@@ -4003,7 +4011,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1">
-        <v>3058</v>
+        <v>4610</v>
       </c>
       <c r="B455">
         <v>-1</v>
@@ -4011,7 +4019,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1">
-        <v>2272</v>
+        <v>3226</v>
       </c>
       <c r="B456">
         <v>-1</v>
@@ -4019,7 +4027,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1">
-        <v>2991</v>
+        <v>4431</v>
       </c>
       <c r="B457">
         <v>-1</v>
@@ -4027,7 +4035,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1">
-        <v>3537</v>
+        <v>5692</v>
       </c>
       <c r="B458">
         <v>-1</v>
@@ -4035,7 +4043,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1">
-        <v>2496</v>
+        <v>3554</v>
       </c>
       <c r="B459">
         <v>-1</v>
@@ -4043,7 +4051,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1">
-        <v>3433</v>
+        <v>5497</v>
       </c>
       <c r="B460">
         <v>-1</v>
@@ -4051,7 +4059,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1">
-        <v>2964</v>
+        <v>4364</v>
       </c>
       <c r="B461">
         <v>-1</v>
@@ -4059,7 +4067,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1">
-        <v>3741</v>
+        <v>6049</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4067,7 +4075,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1">
-        <v>2968</v>
+        <v>4371</v>
       </c>
       <c r="B463">
         <v>-1</v>
@@ -4075,7 +4083,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1">
-        <v>803</v>
+        <v>1188</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4083,7 +4091,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1">
-        <v>3121</v>
+        <v>4774</v>
       </c>
       <c r="B465">
         <v>-1</v>
@@ -4091,7 +4099,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="1">
-        <v>1149</v>
+        <v>1673</v>
       </c>
       <c r="B466">
         <v>-1</v>
@@ -4099,7 +4107,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1">
-        <v>1808</v>
+        <v>2564</v>
       </c>
       <c r="B467">
         <v>-1</v>
@@ -4107,7 +4115,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1">
-        <v>1642</v>
+        <v>2340</v>
       </c>
       <c r="B468">
         <v>-1</v>
@@ -4115,7 +4123,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1">
-        <v>1233</v>
+        <v>1785</v>
       </c>
       <c r="B469">
         <v>-1</v>
@@ -4123,7 +4131,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1">
-        <v>408</v>
+        <v>646</v>
       </c>
       <c r="B470">
         <v>-1</v>
@@ -4131,7 +4139,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1">
-        <v>2086</v>
+        <v>2956</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -4139,7 +4147,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1">
-        <v>1134</v>
+        <v>1653</v>
       </c>
       <c r="B472">
         <v>-1</v>
@@ -4147,7 +4155,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="1">
-        <v>3676</v>
+        <v>5942</v>
       </c>
       <c r="B473">
         <v>-1</v>
@@ -4155,7 +4163,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1">
-        <v>2943</v>
+        <v>4321</v>
       </c>
       <c r="B474">
         <v>-1</v>
@@ -4163,7 +4171,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="1">
-        <v>842</v>
+        <v>1243</v>
       </c>
       <c r="B475">
         <v>-1</v>
@@ -4171,7 +4179,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1">
-        <v>3210</v>
+        <v>5014</v>
       </c>
       <c r="B476">
         <v>-1</v>
@@ -4179,7 +4187,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1">
-        <v>2359</v>
+        <v>3359</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -4187,7 +4195,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1">
-        <v>1132</v>
+        <v>1651</v>
       </c>
       <c r="B478">
         <v>-1</v>
@@ -4195,7 +4203,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="1">
-        <v>1533</v>
+        <v>2194</v>
       </c>
       <c r="B479">
         <v>-1</v>
@@ -4203,7 +4211,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1">
-        <v>3720</v>
+        <v>6017</v>
       </c>
       <c r="B480">
         <v>-1</v>
@@ -4211,7 +4219,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1">
-        <v>1422</v>
+        <v>2043</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4219,7 +4227,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1">
-        <v>1138</v>
+        <v>1661</v>
       </c>
       <c r="B482">
         <v>-1</v>
@@ -4227,7 +4235,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1">
-        <v>1512</v>
+        <v>2164</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -4235,7 +4243,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1">
-        <v>2184</v>
+        <v>3088</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -4243,7 +4251,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1">
-        <v>3634</v>
+        <v>5863</v>
       </c>
       <c r="B485">
         <v>-1</v>
@@ -4251,7 +4259,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B486">
         <v>-1</v>
@@ -4259,7 +4267,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="B487">
         <v>-1</v>
@@ -4267,7 +4275,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1">
-        <v>295</v>
+        <v>464</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -4275,7 +4283,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1">
-        <v>2636</v>
+        <v>3772</v>
       </c>
       <c r="B489">
         <v>-1</v>
@@ -4283,7 +4291,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1">
-        <v>2579</v>
+        <v>3685</v>
       </c>
       <c r="B490">
         <v>-1</v>
@@ -4291,7 +4299,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1">
-        <v>2626</v>
+        <v>3759</v>
       </c>
       <c r="B491">
         <v>-1</v>
@@ -4299,7 +4307,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="1">
-        <v>2044</v>
+        <v>2900</v>
       </c>
       <c r="B492">
         <v>-1</v>
@@ -4307,7 +4315,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="1">
-        <v>1017</v>
+        <v>1497</v>
       </c>
       <c r="B493">
         <v>-1</v>
@@ -4315,7 +4323,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1">
-        <v>1582</v>
+        <v>2270</v>
       </c>
       <c r="B494">
         <v>-1</v>
@@ -4323,7 +4331,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1">
-        <v>2057</v>
+        <v>2914</v>
       </c>
       <c r="B495">
         <v>-1</v>
@@ -4331,7 +4339,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="1">
-        <v>1292</v>
+        <v>1865</v>
       </c>
       <c r="B496">
         <v>-1</v>
@@ -4339,7 +4347,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1">
-        <v>2390</v>
+        <v>3402</v>
       </c>
       <c r="B497">
         <v>-1</v>
@@ -4347,7 +4355,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="1">
-        <v>2936</v>
+        <v>4308</v>
       </c>
       <c r="B498">
         <v>-1</v>
@@ -4355,7 +4363,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1">
-        <v>2662</v>
+        <v>3806</v>
       </c>
       <c r="B499">
         <v>-1</v>
@@ -4363,7 +4371,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1">
-        <v>2436</v>
+        <v>3461</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -4371,7 +4379,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="1">
-        <v>3450</v>
+        <v>5529</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -4379,7 +4387,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="1">
-        <v>2288</v>
+        <v>3257</v>
       </c>
       <c r="B502">
         <v>-1</v>
@@ -4387,7 +4395,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="1">
-        <v>2916</v>
+        <v>4267</v>
       </c>
       <c r="B503">
         <v>-1</v>
@@ -4395,7 +4403,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="1">
-        <v>2721</v>
+        <v>3915</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4403,7 +4411,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="1">
-        <v>1602</v>
+        <v>2296</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4411,7 +4419,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="1">
-        <v>2456</v>
+        <v>3490</v>
       </c>
       <c r="B506">
         <v>-1</v>
@@ -4419,7 +4427,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="1">
-        <v>1941</v>
+        <v>2751</v>
       </c>
       <c r="B507">
         <v>-1</v>
@@ -4427,7 +4435,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="1">
-        <v>1578</v>
+        <v>2264</v>
       </c>
       <c r="B508">
         <v>-1</v>
@@ -4435,7 +4443,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="1">
-        <v>1426</v>
+        <v>2047</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4443,7 +4451,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="1">
-        <v>3786</v>
+        <v>6136</v>
       </c>
       <c r="B510">
         <v>-1</v>
@@ -4451,7 +4459,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="1">
-        <v>718</v>
+        <v>1076</v>
       </c>
       <c r="B511">
         <v>-1</v>
@@ -4459,7 +4467,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="1">
-        <v>736</v>
+        <v>1106</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -4467,7 +4475,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="1">
-        <v>1320</v>
+        <v>1904</v>
       </c>
       <c r="B513">
         <v>-1</v>
@@ -4475,7 +4483,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="1">
-        <v>2629</v>
+        <v>3763</v>
       </c>
       <c r="B514">
         <v>-1</v>
@@ -4483,7 +4491,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="1">
-        <v>544</v>
+        <v>841</v>
       </c>
       <c r="B515">
         <v>-1</v>
@@ -4491,7 +4499,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="1">
-        <v>1509</v>
+        <v>2159</v>
       </c>
       <c r="B516">
         <v>-1</v>
@@ -4499,7 +4507,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="1">
-        <v>1444</v>
+        <v>2069</v>
       </c>
       <c r="B517">
         <v>-1</v>
@@ -4507,7 +4515,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="1">
-        <v>1047</v>
+        <v>1544</v>
       </c>
       <c r="B518">
         <v>-1</v>
@@ -4515,7 +4523,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1">
-        <v>2093</v>
+        <v>2966</v>
       </c>
       <c r="B519">
         <v>-1</v>
@@ -4523,7 +4531,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="1">
-        <v>411</v>
+        <v>649</v>
       </c>
       <c r="B520">
         <v>-1</v>
@@ -4531,7 +4539,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1">
-        <v>1513</v>
+        <v>2165</v>
       </c>
       <c r="B521">
         <v>-1</v>
@@ -4539,7 +4547,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="1">
-        <v>1551</v>
+        <v>2224</v>
       </c>
       <c r="B522">
         <v>-1</v>
@@ -4547,7 +4555,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="1">
-        <v>2872</v>
+        <v>4167</v>
       </c>
       <c r="B523">
         <v>-1</v>
@@ -4555,7 +4563,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1">
-        <v>599</v>
+        <v>914</v>
       </c>
       <c r="B524">
         <v>-1</v>
@@ -4563,7 +4571,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="1">
-        <v>2416</v>
+        <v>3436</v>
       </c>
       <c r="B525">
         <v>-1</v>
@@ -4571,7 +4579,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="1">
-        <v>594</v>
+        <v>907</v>
       </c>
       <c r="B526">
         <v>-1</v>
@@ -4579,7 +4587,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="1">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="B527">
         <v>-1</v>
@@ -4587,7 +4595,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="1">
-        <v>3203</v>
+        <v>4993</v>
       </c>
       <c r="B528">
         <v>-1</v>
@@ -4595,7 +4603,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1">
-        <v>2972</v>
+        <v>4381</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4603,7 +4611,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="1">
-        <v>1188</v>
+        <v>1720</v>
       </c>
       <c r="B530">
         <v>-1</v>
@@ -4611,7 +4619,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="1">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B531">
         <v>-1</v>
@@ -4619,7 +4627,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="1">
-        <v>3541</v>
+        <v>5699</v>
       </c>
       <c r="B532">
         <v>-1</v>
@@ -4627,7 +4635,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="1">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="B533">
         <v>-1</v>
@@ -4635,7 +4643,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="1">
-        <v>2230</v>
+        <v>3167</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4643,7 +4651,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="1">
-        <v>3671</v>
+        <v>5937</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4651,7 +4659,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="1">
-        <v>3055</v>
+        <v>4603</v>
       </c>
       <c r="B536">
         <v>-1</v>
@@ -4659,7 +4667,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="1">
-        <v>3076</v>
+        <v>4642</v>
       </c>
       <c r="B537">
         <v>-1</v>
@@ -4667,7 +4675,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="1">
-        <v>787</v>
+        <v>1172</v>
       </c>
       <c r="B538">
         <v>-1</v>
@@ -4675,7 +4683,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="1">
-        <v>3590</v>
+        <v>5786</v>
       </c>
       <c r="B539">
         <v>-1</v>
@@ -4683,7 +4691,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="1">
-        <v>2755</v>
+        <v>3970</v>
       </c>
       <c r="B540">
         <v>-1</v>
@@ -4691,7 +4699,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1">
-        <v>1068</v>
+        <v>1570</v>
       </c>
       <c r="B541">
         <v>-1</v>
@@ -4699,7 +4707,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1">
-        <v>3386</v>
+        <v>5396</v>
       </c>
       <c r="B542">
         <v>-1</v>
@@ -4707,7 +4715,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="1">
-        <v>332</v>
+        <v>519</v>
       </c>
       <c r="B543">
         <v>-1</v>
@@ -4715,7 +4723,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="1">
-        <v>2637</v>
+        <v>3775</v>
       </c>
       <c r="B544">
         <v>-1</v>
@@ -4723,7 +4731,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="1">
-        <v>2283</v>
+        <v>3250</v>
       </c>
       <c r="B545">
         <v>-1</v>
@@ -4731,7 +4739,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1">
-        <v>1023</v>
+        <v>1507</v>
       </c>
       <c r="B546">
         <v>-1</v>
@@ -4739,7 +4747,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="1">
-        <v>1352</v>
+        <v>1947</v>
       </c>
       <c r="B547">
         <v>-1</v>
@@ -4747,7 +4755,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1">
-        <v>2236</v>
+        <v>3174</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4755,7 +4763,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="1">
-        <v>862</v>
+        <v>1268</v>
       </c>
       <c r="B549">
         <v>-1</v>
@@ -4763,7 +4771,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="1">
-        <v>2768</v>
+        <v>3996</v>
       </c>
       <c r="B550">
         <v>-1</v>
@@ -4771,7 +4779,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1">
-        <v>3655</v>
+        <v>5903</v>
       </c>
       <c r="B551">
         <v>-1</v>
@@ -4779,7 +4787,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="1">
-        <v>3789</v>
+        <v>6142</v>
       </c>
       <c r="B552">
         <v>-1</v>
@@ -4787,7 +4795,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1">
-        <v>3487</v>
+        <v>5606</v>
       </c>
       <c r="B553">
         <v>-1</v>
@@ -4795,7 +4803,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="1">
-        <v>2077</v>
+        <v>2944</v>
       </c>
       <c r="B554">
         <v>-1</v>
@@ -4803,7 +4811,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="1">
-        <v>3745</v>
+        <v>6061</v>
       </c>
       <c r="B555">
         <v>-1</v>
@@ -4811,7 +4819,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="1">
-        <v>1116</v>
+        <v>1629</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4819,7 +4827,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="1">
-        <v>733</v>
+        <v>1100</v>
       </c>
       <c r="B557">
         <v>-1</v>
@@ -4827,7 +4835,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="1">
-        <v>1161</v>
+        <v>1689</v>
       </c>
       <c r="B558">
         <v>-1</v>
@@ -4835,7 +4843,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="1">
-        <v>1022</v>
+        <v>1506</v>
       </c>
       <c r="B559">
         <v>-1</v>
@@ -4843,7 +4851,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="1">
-        <v>1657</v>
+        <v>2362</v>
       </c>
       <c r="B560">
         <v>-1</v>
@@ -4851,7 +4859,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1">
-        <v>1592</v>
+        <v>2285</v>
       </c>
       <c r="B561">
         <v>-1</v>
@@ -4859,7 +4867,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1">
-        <v>2994</v>
+        <v>4434</v>
       </c>
       <c r="B562">
         <v>-1</v>
@@ -4867,7 +4875,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1">
-        <v>1924</v>
+        <v>2728</v>
       </c>
       <c r="B563">
         <v>-1</v>
@@ -4875,7 +4883,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="1">
-        <v>1910</v>
+        <v>2708</v>
       </c>
       <c r="B564">
         <v>-1</v>
@@ -4883,7 +4891,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="1">
-        <v>1620</v>
+        <v>2317</v>
       </c>
       <c r="B565">
         <v>-1</v>
@@ -4891,7 +4899,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="1">
-        <v>2149</v>
+        <v>3045</v>
       </c>
       <c r="B566">
         <v>-1</v>
@@ -4899,7 +4907,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="1">
-        <v>3310</v>
+        <v>5194</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -4907,7 +4915,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="1">
-        <v>3679</v>
+        <v>5946</v>
       </c>
       <c r="B568">
         <v>-1</v>
@@ -4915,7 +4923,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="1">
-        <v>1222</v>
+        <v>1769</v>
       </c>
       <c r="B569">
         <v>-1</v>
@@ -4923,7 +4931,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="1">
-        <v>1234</v>
+        <v>1786</v>
       </c>
       <c r="B570">
         <v>-1</v>
@@ -4931,7 +4939,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1">
-        <v>2890</v>
+        <v>4213</v>
       </c>
       <c r="B571">
         <v>-1</v>
@@ -4939,7 +4947,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="1">
-        <v>2798</v>
+        <v>4048</v>
       </c>
       <c r="B572">
         <v>-1</v>
@@ -4947,7 +4955,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="1">
-        <v>1395</v>
+        <v>2003</v>
       </c>
       <c r="B573">
         <v>-1</v>
@@ -4955,7 +4963,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="1">
-        <v>3030</v>
+        <v>4553</v>
       </c>
       <c r="B574">
         <v>-1</v>
@@ -4963,7 +4971,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="1">
-        <v>1894</v>
+        <v>2684</v>
       </c>
       <c r="B575">
         <v>-1</v>
@@ -4971,7 +4979,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="1">
-        <v>346</v>
+        <v>543</v>
       </c>
       <c r="B576">
         <v>-1</v>
@@ -4979,7 +4987,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="1">
-        <v>764</v>
+        <v>1144</v>
       </c>
       <c r="B577">
         <v>-1</v>
@@ -4987,7 +4995,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="1">
-        <v>3644</v>
+        <v>5877</v>
       </c>
       <c r="B578">
         <v>-1</v>
@@ -4995,7 +5003,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="1">
-        <v>2973</v>
+        <v>4382</v>
       </c>
       <c r="B579">
         <v>-1</v>
@@ -5003,7 +5011,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="1">
-        <v>1929</v>
+        <v>2735</v>
       </c>
       <c r="B580">
         <v>-1</v>
@@ -5011,7 +5019,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="1">
-        <v>3116</v>
+        <v>4759</v>
       </c>
       <c r="B581">
         <v>-1</v>
@@ -5019,7 +5027,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="1">
-        <v>2781</v>
+        <v>4021</v>
       </c>
       <c r="B582">
         <v>-1</v>
@@ -5027,7 +5035,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="1">
-        <v>2531</v>
+        <v>3602</v>
       </c>
       <c r="B583">
         <v>-1</v>
@@ -5035,7 +5043,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="1">
-        <v>2835</v>
+        <v>4098</v>
       </c>
       <c r="B584">
         <v>-1</v>
@@ -5043,7 +5051,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="1">
-        <v>1289</v>
+        <v>1857</v>
       </c>
       <c r="B585">
         <v>-1</v>
@@ -5051,7 +5059,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="1">
-        <v>2053</v>
+        <v>2909</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -5059,7 +5067,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="1">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="B587">
         <v>-1</v>
@@ -5067,7 +5075,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="1">
-        <v>3031</v>
+        <v>4555</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -5075,7 +5083,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="1">
-        <v>1729</v>
+        <v>2456</v>
       </c>
       <c r="B589">
         <v>-1</v>
@@ -5083,7 +5091,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="1">
-        <v>1075</v>
+        <v>1578</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -5091,7 +5099,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="1">
-        <v>3126</v>
+        <v>4779</v>
       </c>
       <c r="B591">
         <v>-1</v>
@@ -5099,7 +5107,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="1">
-        <v>1057</v>
+        <v>1556</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -5107,7 +5115,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="1">
-        <v>1361</v>
+        <v>1961</v>
       </c>
       <c r="B593">
         <v>-1</v>
@@ -5115,7 +5123,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="1">
-        <v>2493</v>
+        <v>3550</v>
       </c>
       <c r="B594">
         <v>-1</v>
@@ -5123,7 +5131,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="1">
-        <v>3322</v>
+        <v>5220</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -5131,7 +5139,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="1">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="B596">
         <v>-1</v>
@@ -5139,7 +5147,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="1">
-        <v>912</v>
+        <v>1337</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -5147,7 +5155,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="1">
-        <v>2907</v>
+        <v>4248</v>
       </c>
       <c r="B598">
         <v>-1</v>
@@ -5155,7 +5163,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="1">
-        <v>331</v>
+        <v>518</v>
       </c>
       <c r="B599">
         <v>-1</v>
@@ -5163,7 +5171,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="1">
-        <v>3691</v>
+        <v>5971</v>
       </c>
       <c r="B600">
         <v>-1</v>
@@ -5171,7 +5179,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="1">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="B601">
         <v>-1</v>
@@ -5179,7 +5187,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1">
-        <v>2678</v>
+        <v>3833</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -5187,7 +5195,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1">
-        <v>3130</v>
+        <v>4788</v>
       </c>
       <c r="B603">
         <v>-1</v>
@@ -5195,7 +5203,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1">
-        <v>809</v>
+        <v>1197</v>
       </c>
       <c r="B604">
         <v>-1</v>
@@ -5203,7 +5211,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1">
-        <v>1278</v>
+        <v>1845</v>
       </c>
       <c r="B605">
         <v>-1</v>
@@ -5211,7 +5219,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="1">
-        <v>479</v>
+        <v>745</v>
       </c>
       <c r="B606">
         <v>-1</v>
@@ -5219,7 +5227,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1">
-        <v>1350</v>
+        <v>1944</v>
       </c>
       <c r="B607">
         <v>-1</v>
@@ -5227,7 +5235,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="1">
-        <v>3609</v>
+        <v>5824</v>
       </c>
       <c r="B608">
         <v>-1</v>
@@ -5235,7 +5243,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="1">
-        <v>1601</v>
+        <v>2295</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -5243,7 +5251,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="1">
-        <v>2110</v>
+        <v>2988</v>
       </c>
       <c r="B610">
         <v>-1</v>
@@ -5251,7 +5259,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="1">
-        <v>1406</v>
+        <v>2023</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -5259,7 +5267,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="1">
-        <v>2924</v>
+        <v>4287</v>
       </c>
       <c r="B612">
         <v>-1</v>
@@ -5267,7 +5275,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="1">
-        <v>1626</v>
+        <v>2324</v>
       </c>
       <c r="B613">
         <v>-1</v>
@@ -5275,7 +5283,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="1">
-        <v>324</v>
+        <v>505</v>
       </c>
       <c r="B614">
         <v>-1</v>
@@ -5283,7 +5291,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="1">
-        <v>468</v>
+        <v>731</v>
       </c>
       <c r="B615">
         <v>-1</v>
@@ -5291,7 +5299,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="1">
-        <v>561</v>
+        <v>864</v>
       </c>
       <c r="B616">
         <v>-1</v>
@@ -5299,7 +5307,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="1">
-        <v>1732</v>
+        <v>2462</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5307,7 +5315,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="1">
-        <v>1798</v>
+        <v>2552</v>
       </c>
       <c r="B618">
         <v>-1</v>
@@ -5315,7 +5323,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1">
-        <v>1912</v>
+        <v>2710</v>
       </c>
       <c r="B619">
         <v>-1</v>
@@ -5323,7 +5331,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="1">
-        <v>1859</v>
+        <v>2632</v>
       </c>
       <c r="B620">
         <v>-1</v>
@@ -5331,7 +5339,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="1">
-        <v>2400</v>
+        <v>3414</v>
       </c>
       <c r="B621">
         <v>-1</v>
@@ -5339,7 +5347,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="1">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5347,7 +5355,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="1">
-        <v>746</v>
+        <v>1120</v>
       </c>
       <c r="B623">
         <v>-1</v>
@@ -5355,7 +5363,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="1">
-        <v>2240</v>
+        <v>3180</v>
       </c>
       <c r="B624">
         <v>-1</v>
@@ -5363,7 +5371,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="B625">
         <v>-1</v>
@@ -5371,7 +5379,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="1">
-        <v>3374</v>
+        <v>5368</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -5379,7 +5387,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="1">
-        <v>1553</v>
+        <v>2226</v>
       </c>
       <c r="B627">
         <v>-1</v>
@@ -5387,7 +5395,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="1">
-        <v>2550</v>
+        <v>3632</v>
       </c>
       <c r="B628">
         <v>-1</v>
@@ -5395,7 +5403,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="1">
-        <v>1025</v>
+        <v>1512</v>
       </c>
       <c r="B629">
         <v>-1</v>
@@ -5403,7 +5411,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="1">
-        <v>3636</v>
+        <v>5865</v>
       </c>
       <c r="B630">
         <v>-1</v>
@@ -5411,7 +5419,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1">
-        <v>3071</v>
+        <v>4633</v>
       </c>
       <c r="B631">
         <v>-1</v>
@@ -5419,7 +5427,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="B632">
         <v>-1</v>
@@ -5427,7 +5435,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="1">
-        <v>1780</v>
+        <v>2520</v>
       </c>
       <c r="B633">
         <v>-1</v>
@@ -5435,7 +5443,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="1">
-        <v>1006</v>
+        <v>1478</v>
       </c>
       <c r="B634">
         <v>-1</v>
@@ -5443,7 +5451,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="1">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5451,7 +5459,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="1">
-        <v>2784</v>
+        <v>4025</v>
       </c>
       <c r="B636">
         <v>-1</v>
@@ -5459,7 +5467,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="1">
-        <v>3669</v>
+        <v>5933</v>
       </c>
       <c r="B637">
         <v>-1</v>
@@ -5467,7 +5475,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="1">
-        <v>1736</v>
+        <v>2467</v>
       </c>
       <c r="B638">
         <v>-1</v>
@@ -5475,7 +5483,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="1">
-        <v>1421</v>
+        <v>2042</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5483,7 +5491,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="1">
-        <v>1268</v>
+        <v>1833</v>
       </c>
       <c r="B640">
         <v>-1</v>
@@ -5491,7 +5499,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="1">
-        <v>436</v>
+        <v>687</v>
       </c>
       <c r="B641">
         <v>-1</v>
@@ -5499,7 +5507,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="1">
-        <v>3265</v>
+        <v>5100</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5507,7 +5515,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1">
-        <v>3582</v>
+        <v>5774</v>
       </c>
       <c r="B643">
         <v>-1</v>
@@ -5515,7 +5523,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="1">
-        <v>2627</v>
+        <v>3761</v>
       </c>
       <c r="B644">
         <v>-1</v>
@@ -5523,7 +5531,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="1">
-        <v>3532</v>
+        <v>5683</v>
       </c>
       <c r="B645">
         <v>-1</v>
@@ -5531,7 +5539,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="1">
-        <v>3488</v>
+        <v>5610</v>
       </c>
       <c r="B646">
         <v>-1</v>
@@ -5539,7 +5547,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="1">
-        <v>3270</v>
+        <v>5105</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5547,7 +5555,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="1">
-        <v>1728</v>
+        <v>2455</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -5555,7 +5563,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="1">
-        <v>3477</v>
+        <v>5592</v>
       </c>
       <c r="B649">
         <v>-1</v>
@@ -5563,7 +5571,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="1">
-        <v>3736</v>
+        <v>6044</v>
       </c>
       <c r="B650">
         <v>-1</v>
@@ -5571,7 +5579,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="1">
-        <v>1424</v>
+        <v>2045</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5579,7 +5587,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="1">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="B652">
         <v>-1</v>
@@ -5587,7 +5595,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="1">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="B653">
         <v>-1</v>
@@ -5595,7 +5603,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="1">
-        <v>2670</v>
+        <v>3820</v>
       </c>
       <c r="B654">
         <v>-1</v>
@@ -5603,7 +5611,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="1">
-        <v>621</v>
+        <v>946</v>
       </c>
       <c r="B655">
         <v>-1</v>
@@ -5611,7 +5619,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="1">
-        <v>1784</v>
+        <v>2526</v>
       </c>
       <c r="B656">
         <v>-1</v>
@@ -5619,7 +5627,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1">
-        <v>2107</v>
+        <v>2984</v>
       </c>
       <c r="B657">
         <v>-1</v>
@@ -5627,7 +5635,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1">
-        <v>2014</v>
+        <v>2852</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5635,7 +5643,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="1">
-        <v>2092</v>
+        <v>2963</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5643,7 +5651,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="1">
-        <v>423</v>
+        <v>672</v>
       </c>
       <c r="B660">
         <v>-1</v>
@@ -5651,7 +5659,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="1">
-        <v>3501</v>
+        <v>5634</v>
       </c>
       <c r="B661">
         <v>-1</v>
@@ -5659,7 +5667,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="1">
-        <v>1674</v>
+        <v>2387</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5667,7 +5675,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="1">
-        <v>506</v>
+        <v>790</v>
       </c>
       <c r="B663">
         <v>-1</v>
@@ -5675,7 +5683,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="1">
-        <v>1055</v>
+        <v>1554</v>
       </c>
       <c r="B664">
         <v>-1</v>
@@ -5683,7 +5691,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="1">
-        <v>3384</v>
+        <v>5388</v>
       </c>
       <c r="B665">
         <v>-1</v>
@@ -5691,7 +5699,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="1">
-        <v>1084</v>
+        <v>1591</v>
       </c>
       <c r="B666">
         <v>-1</v>
@@ -5699,7 +5707,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="1">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="B667">
         <v>-1</v>
@@ -5707,7 +5715,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="1">
-        <v>1338</v>
+        <v>1932</v>
       </c>
       <c r="B668">
         <v>-1</v>
@@ -5715,7 +5723,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="1">
-        <v>1011</v>
+        <v>1488</v>
       </c>
       <c r="B669">
         <v>-1</v>
@@ -5723,7 +5731,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="1">
-        <v>549</v>
+        <v>850</v>
       </c>
       <c r="B670">
         <v>-1</v>
@@ -5731,7 +5739,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1">
-        <v>557</v>
+        <v>858</v>
       </c>
       <c r="B671">
         <v>-1</v>
@@ -5739,7 +5747,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="1">
-        <v>1171</v>
+        <v>1702</v>
       </c>
       <c r="B672">
         <v>-1</v>
@@ -5747,7 +5755,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="1">
-        <v>602</v>
+        <v>919</v>
       </c>
       <c r="B673">
         <v>1</v>
@@ -5755,7 +5763,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="1">
-        <v>442</v>
+        <v>695</v>
       </c>
       <c r="B674">
         <v>-1</v>
@@ -5763,7 +5771,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="1">
-        <v>1611</v>
+        <v>2306</v>
       </c>
       <c r="B675">
         <v>-1</v>
@@ -5771,7 +5779,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1">
-        <v>218</v>
+        <v>341</v>
       </c>
       <c r="B676">
         <v>-1</v>
@@ -5779,7 +5787,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1">
-        <v>1967</v>
+        <v>2791</v>
       </c>
       <c r="B677">
         <v>-1</v>
@@ -5787,7 +5795,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="1">
-        <v>1459</v>
+        <v>2088</v>
       </c>
       <c r="B678">
         <v>-1</v>
@@ -5795,7 +5803,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="1">
-        <v>3159</v>
+        <v>4864</v>
       </c>
       <c r="B679">
         <v>-1</v>
@@ -5803,7 +5811,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="1">
-        <v>3082</v>
+        <v>4670</v>
       </c>
       <c r="B680">
         <v>-1</v>
@@ -5811,7 +5819,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="1">
-        <v>3624</v>
+        <v>5847</v>
       </c>
       <c r="B681">
         <v>-1</v>
@@ -5819,7 +5827,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="1">
-        <v>1429</v>
+        <v>2050</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -5827,7 +5835,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="1">
-        <v>3214</v>
+        <v>5020</v>
       </c>
       <c r="B683">
         <v>-1</v>
@@ -5835,7 +5843,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="1">
-        <v>3623</v>
+        <v>5845</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -5843,7 +5851,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="1">
-        <v>1411</v>
+        <v>2029</v>
       </c>
       <c r="B685">
         <v>-1</v>
@@ -5851,7 +5859,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="1">
-        <v>2696</v>
+        <v>3869</v>
       </c>
       <c r="B686">
         <v>-1</v>
@@ -5859,7 +5867,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="1">
-        <v>1960</v>
+        <v>2783</v>
       </c>
       <c r="B687">
         <v>-1</v>
@@ -5867,7 +5875,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="1">
-        <v>3589</v>
+        <v>5785</v>
       </c>
       <c r="B688">
         <v>-1</v>
@@ -5875,7 +5883,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="1">
-        <v>1192</v>
+        <v>1726</v>
       </c>
       <c r="B689">
         <v>-1</v>
@@ -5883,7 +5891,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="1">
-        <v>1936</v>
+        <v>2744</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -5891,7 +5899,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="1">
-        <v>1295</v>
+        <v>1868</v>
       </c>
       <c r="B691">
         <v>-1</v>
@@ -5899,7 +5907,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="1">
-        <v>949</v>
+        <v>1386</v>
       </c>
       <c r="B692">
         <v>-1</v>
@@ -5907,7 +5915,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="1">
-        <v>1977</v>
+        <v>2802</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5915,7 +5923,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="1">
-        <v>1200</v>
+        <v>1740</v>
       </c>
       <c r="B694">
         <v>-1</v>
@@ -5923,7 +5931,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="1">
-        <v>1071</v>
+        <v>1574</v>
       </c>
       <c r="B695">
         <v>-1</v>
@@ -5931,7 +5939,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="1">
-        <v>578</v>
+        <v>883</v>
       </c>
       <c r="B696">
         <v>-1</v>
@@ -5939,7 +5947,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="1">
-        <v>2906</v>
+        <v>4247</v>
       </c>
       <c r="B697">
         <v>-1</v>
@@ -5947,7 +5955,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="1">
-        <v>1909</v>
+        <v>2707</v>
       </c>
       <c r="B698">
         <v>-1</v>
@@ -5963,7 +5971,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="1">
-        <v>2022</v>
+        <v>2863</v>
       </c>
       <c r="B700">
         <v>-1</v>
@@ -5971,7 +5979,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="1">
-        <v>1345</v>
+        <v>1939</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -5979,7 +5987,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="1">
-        <v>3651</v>
+        <v>5894</v>
       </c>
       <c r="B702">
         <v>-1</v>
@@ -5987,7 +5995,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="1">
-        <v>794</v>
+        <v>1179</v>
       </c>
       <c r="B703">
         <v>-1</v>
@@ -5995,7 +6003,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="1">
-        <v>2987</v>
+        <v>4421</v>
       </c>
       <c r="B704">
         <v>-1</v>
@@ -6003,7 +6011,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="1">
-        <v>1456</v>
+        <v>2084</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -6011,7 +6019,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="1">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="B706">
         <v>-1</v>
@@ -6019,7 +6027,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1">
-        <v>2406</v>
+        <v>3423</v>
       </c>
       <c r="B707">
         <v>-1</v>
@@ -6027,7 +6035,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1">
-        <v>2979</v>
+        <v>4402</v>
       </c>
       <c r="B708">
         <v>-1</v>
@@ -6035,7 +6043,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="1">
-        <v>2271</v>
+        <v>3225</v>
       </c>
       <c r="B709">
         <v>-1</v>
@@ -6043,7 +6051,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="1">
-        <v>3379</v>
+        <v>5378</v>
       </c>
       <c r="B710">
         <v>-1</v>
@@ -6051,7 +6059,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="1">
-        <v>650</v>
+        <v>987</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6059,7 +6067,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="1">
-        <v>1783</v>
+        <v>2525</v>
       </c>
       <c r="B712">
         <v>-1</v>
@@ -6067,7 +6075,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="1">
-        <v>1073</v>
+        <v>1576</v>
       </c>
       <c r="B713">
         <v>-1</v>
@@ -6075,7 +6083,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="1">
-        <v>3362</v>
+        <v>5340</v>
       </c>
       <c r="B714">
         <v>-1</v>
@@ -6083,7 +6091,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="1">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -6091,7 +6099,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="1">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="B716">
         <v>-1</v>
@@ -6099,7 +6107,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="1">
-        <v>1032</v>
+        <v>1520</v>
       </c>
       <c r="B717">
         <v>-1</v>
@@ -6107,7 +6115,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="1">
-        <v>1744</v>
+        <v>2479</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -6115,7 +6123,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="1">
-        <v>1272</v>
+        <v>1838</v>
       </c>
       <c r="B719">
         <v>-1</v>
@@ -6123,7 +6131,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1">
-        <v>2578</v>
+        <v>3683</v>
       </c>
       <c r="B720">
         <v>-1</v>
@@ -6131,7 +6139,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="1">
-        <v>2407</v>
+        <v>3424</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6139,7 +6147,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="1">
-        <v>1258</v>
+        <v>1821</v>
       </c>
       <c r="B722">
         <v>-1</v>
@@ -6147,7 +6155,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="1">
-        <v>691</v>
+        <v>1040</v>
       </c>
       <c r="B723">
         <v>-1</v>
@@ -6155,7 +6163,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="1">
-        <v>2854</v>
+        <v>4137</v>
       </c>
       <c r="B724">
         <v>-1</v>
@@ -6163,7 +6171,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1">
-        <v>416</v>
+        <v>662</v>
       </c>
       <c r="B725">
         <v>-1</v>
@@ -6171,7 +6179,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="1">
-        <v>1727</v>
+        <v>2453</v>
       </c>
       <c r="B726">
         <v>-1</v>
@@ -6179,7 +6187,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="B727">
         <v>-1</v>
@@ -6187,7 +6195,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1">
-        <v>1786</v>
+        <v>2528</v>
       </c>
       <c r="B728">
         <v>-1</v>
@@ -6195,7 +6203,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1">
-        <v>3188</v>
+        <v>4958</v>
       </c>
       <c r="B729">
         <v>-1</v>
@@ -6203,7 +6211,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="1">
-        <v>2273</v>
+        <v>3229</v>
       </c>
       <c r="B730">
         <v>-1</v>
@@ -6211,7 +6219,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1">
-        <v>3619</v>
+        <v>5837</v>
       </c>
       <c r="B731">
         <v>-1</v>
@@ -6219,7 +6227,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="1">
-        <v>755</v>
+        <v>1133</v>
       </c>
       <c r="B732">
         <v>-1</v>
@@ -6227,7 +6235,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="1">
-        <v>2252</v>
+        <v>3198</v>
       </c>
       <c r="B733">
         <v>-1</v>
@@ -6235,7 +6243,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1">
-        <v>727</v>
+        <v>1091</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -6243,7 +6251,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1">
-        <v>3752</v>
+        <v>6071</v>
       </c>
       <c r="B735">
         <v>-1</v>
@@ -6251,7 +6259,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="1">
-        <v>2380</v>
+        <v>3384</v>
       </c>
       <c r="B736">
         <v>-1</v>
@@ -6259,7 +6267,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1">
-        <v>2638</v>
+        <v>3776</v>
       </c>
       <c r="B737">
         <v>-1</v>
@@ -6267,7 +6275,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1">
-        <v>449</v>
+        <v>705</v>
       </c>
       <c r="B738">
         <v>-1</v>
@@ -6275,7 +6283,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1">
-        <v>2043</v>
+        <v>2899</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -6283,7 +6291,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="1">
-        <v>376</v>
+        <v>589</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6291,7 +6299,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1">
-        <v>2355</v>
+        <v>3354</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6299,7 +6307,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1">
-        <v>1770</v>
+        <v>2508</v>
       </c>
       <c r="B742">
         <v>-1</v>
@@ -6307,7 +6315,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1">
-        <v>2399</v>
+        <v>3413</v>
       </c>
       <c r="B743">
         <v>-1</v>
@@ -6315,7 +6323,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1">
-        <v>433</v>
+        <v>684</v>
       </c>
       <c r="B744">
         <v>-1</v>
@@ -6323,7 +6331,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="1">
-        <v>785</v>
+        <v>1169</v>
       </c>
       <c r="B745">
         <v>-1</v>
@@ -6331,7 +6339,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="B746">
         <v>-1</v>
@@ -6339,7 +6347,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1">
-        <v>3115</v>
+        <v>4758</v>
       </c>
       <c r="B747">
         <v>-1</v>
@@ -6347,7 +6355,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1">
-        <v>2276</v>
+        <v>3235</v>
       </c>
       <c r="B748">
         <v>-1</v>
@@ -6355,7 +6363,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="1">
-        <v>807</v>
+        <v>1193</v>
       </c>
       <c r="B749">
         <v>-1</v>
@@ -6363,7 +6371,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1">
-        <v>700</v>
+        <v>1051</v>
       </c>
       <c r="B750">
         <v>-1</v>
@@ -6371,7 +6379,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1">
-        <v>2233</v>
+        <v>3171</v>
       </c>
       <c r="B751">
         <v>-1</v>
@@ -6379,7 +6387,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1">
-        <v>644</v>
+        <v>977</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -6387,7 +6395,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1">
-        <v>1623</v>
+        <v>2321</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -6395,7 +6403,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1">
-        <v>1739</v>
+        <v>2472</v>
       </c>
       <c r="B754">
         <v>-1</v>
@@ -6403,7 +6411,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1">
-        <v>2902</v>
+        <v>4232</v>
       </c>
       <c r="B755">
         <v>-1</v>
@@ -6411,7 +6419,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1">
-        <v>1480</v>
+        <v>2114</v>
       </c>
       <c r="B756">
         <v>-1</v>
@@ -6419,7 +6427,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1">
-        <v>2957</v>
+        <v>4349</v>
       </c>
       <c r="B757">
         <v>-1</v>
@@ -6427,7 +6435,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1">
-        <v>3569</v>
+        <v>5752</v>
       </c>
       <c r="B758">
         <v>-1</v>
@@ -6435,7 +6443,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1">
-        <v>3410</v>
+        <v>5458</v>
       </c>
       <c r="B759">
         <v>-1</v>
@@ -6443,7 +6451,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="B760">
         <v>-1</v>
@@ -6451,7 +6459,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1">
-        <v>3796</v>
+        <v>6151</v>
       </c>
       <c r="B761">
         <v>1</v>
